--- a/TableDesign/네이버 주문 분석.xlsx
+++ b/TableDesign/네이버 주문 분석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev_program\eclipse_workspace\TableDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237DAF13-39B1-4E9D-B1A3-F99A23A7C870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CF1AAF-507A-4507-BBE5-2FD5C3FBBDD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="5" xr2:uid="{D3163BFD-9BCC-4F8C-AB06-9AF9579B2390}"/>
   </bookViews>
